--- a/data/trans_orig/P29A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>443722</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>415035</v>
+        <v>411808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>474038</v>
+        <v>475056</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4344522409736229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4063640274412559</v>
+        <v>0.40320434232253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4641350450929013</v>
+        <v>0.4651319153818358</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -765,19 +765,19 @@
         <v>148025</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124797</v>
+        <v>128780</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>171427</v>
+        <v>173106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1128266314345185</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09512160598829272</v>
+        <v>0.09815779354318294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1306635603946167</v>
+        <v>0.1319437726592103</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>591</v>
@@ -786,19 +786,19 @@
         <v>591747</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>548886</v>
+        <v>550071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>629022</v>
+        <v>630309</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2536089102925025</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2352396254712858</v>
+        <v>0.2357476684881278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2695839774208555</v>
+        <v>0.2701357177898149</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>577615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>547299</v>
+        <v>546281</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606302</v>
+        <v>609529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5655477590263771</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5358649549070986</v>
+        <v>0.5348680846181643</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5936359725587441</v>
+        <v>0.59679565767747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1142</v>
@@ -836,19 +836,19 @@
         <v>1163944</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1140542</v>
+        <v>1138863</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1187172</v>
+        <v>1183189</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8871733685654815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8693364396053833</v>
+        <v>0.8680562273407901</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9048783940117072</v>
+        <v>0.9018422064568171</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1724</v>
@@ -857,19 +857,19 @@
         <v>1741559</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1704284</v>
+        <v>1702997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1784420</v>
+        <v>1783235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7463910897074975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7304160225791446</v>
+        <v>0.729864282210185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7647603745287145</v>
+        <v>0.7642523315118722</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>1004157</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>960691</v>
+        <v>963627</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1043747</v>
+        <v>1042857</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6018150951215895</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.575764456400818</v>
+        <v>0.5775241138543277</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6255418731620083</v>
+        <v>0.6250086615724998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>484</v>
@@ -982,19 +982,19 @@
         <v>493411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>456912</v>
+        <v>458476</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>528868</v>
+        <v>531665</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3136892433328443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2904847613575258</v>
+        <v>0.2914791402977827</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3362314503258557</v>
+        <v>0.3380095804828534</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1466</v>
@@ -1003,19 +1003,19 @@
         <v>1497568</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1434018</v>
+        <v>1441533</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1551918</v>
+        <v>1558258</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4620018260669329</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4423966460674974</v>
+        <v>0.4447151418356469</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4787690690713229</v>
+        <v>0.4807247329479046</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>664391</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>624801</v>
+        <v>625691</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>707857</v>
+        <v>704921</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3981849048784105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3744581268379915</v>
+        <v>0.3749913384275001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.424235543599182</v>
+        <v>0.4224758861456722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1056</v>
@@ -1053,19 +1053,19 @@
         <v>1079518</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1044061</v>
+        <v>1041264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1116017</v>
+        <v>1114453</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6863107566671558</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6637685496741443</v>
+        <v>0.6619904195171467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7095152386424743</v>
+        <v>0.7085208597022173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1700</v>
@@ -1074,19 +1074,19 @@
         <v>1743908</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1689558</v>
+        <v>1683218</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1807458</v>
+        <v>1799943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5379981739330671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5212309309286771</v>
+        <v>0.5192752670520954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5576033539325026</v>
+        <v>0.5552848581643531</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>328216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304535</v>
+        <v>303521</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>351888</v>
+        <v>354203</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6047617629048611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5611291717390223</v>
+        <v>0.5592600745592677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.648380212772856</v>
+        <v>0.6526452686861791</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>175</v>
@@ -1199,19 +1199,19 @@
         <v>182419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159771</v>
+        <v>161803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203344</v>
+        <v>203739</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3837329239872627</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3360902973664753</v>
+        <v>0.3403642991865263</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4277485639002391</v>
+        <v>0.4285794501678072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>493</v>
@@ -1220,19 +1220,19 @@
         <v>510635</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>477720</v>
+        <v>480748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>541460</v>
+        <v>540699</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5015568162258663</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4692272462499885</v>
+        <v>0.4722011112850507</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5318334587590312</v>
+        <v>0.5310864592995977</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>214503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>190831</v>
+        <v>188516</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>238184</v>
+        <v>239198</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3952382370951389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3516197872271441</v>
+        <v>0.3473547313138209</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4388708282609776</v>
+        <v>0.4407399254407321</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -1270,19 +1270,19 @@
         <v>292962</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>272037</v>
+        <v>271642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>315610</v>
+        <v>313578</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6162670760127373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5722514360997608</v>
+        <v>0.5714205498321927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6639097026335247</v>
+        <v>0.6596357008134733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>477</v>
@@ -1291,19 +1291,19 @@
         <v>507465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>476640</v>
+        <v>477401</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>540380</v>
+        <v>537352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4984431837741337</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4681665412409688</v>
+        <v>0.4689135407004022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5307727537500115</v>
+        <v>0.5277988887149494</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1776095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.549431724284705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>805</v>
@@ -1416,19 +1416,19 @@
         <v>823855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2451746687844678</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2550</v>
@@ -1437,19 +1437,19 @@
         <v>2599950</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3943571309997094</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1456508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1399456</v>
+        <v>1400139</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1513937</v>
+        <v>1515285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.450568275715295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4329192460387386</v>
+        <v>0.4331305059925304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4683335731420479</v>
+        <v>0.468750876253747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2474</v>
@@ -1487,19 +1487,19 @@
         <v>2536424</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2485346</v>
+        <v>2484298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2586444</v>
+        <v>2584170</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7548253312155322</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7396250210677104</v>
+        <v>0.7393129598840927</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7697112172889916</v>
+        <v>0.7690343325692418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3901</v>
@@ -1508,19 +1508,19 @@
         <v>3992932</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3904871</v>
+        <v>3915828</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4062425</v>
+        <v>4081443</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6056428690002905</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5922858742527332</v>
+        <v>0.5939478795002517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6161834738696025</v>
+        <v>0.6190681472227674</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>455921</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>425423</v>
+        <v>425330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>488223</v>
+        <v>488891</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4902104181126474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4574184637419783</v>
+        <v>0.4573184787113144</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5249420810778995</v>
+        <v>0.5256599303964664</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>175</v>
@@ -1872,19 +1872,19 @@
         <v>189879</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165637</v>
+        <v>164309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216516</v>
+        <v>214881</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1442658273844654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1258471683229102</v>
+        <v>0.124838899761035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1645039813697891</v>
+        <v>0.1632623211225555</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>602</v>
@@ -1893,19 +1893,19 @@
         <v>645800</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>606509</v>
+        <v>602733</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>692333</v>
+        <v>686238</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2875046146217143</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2700127591579813</v>
+        <v>0.2683318621580617</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3082206078210464</v>
+        <v>0.3055073235840762</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>474131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>441829</v>
+        <v>441161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>504629</v>
+        <v>504722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5097895818873526</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4750579189221009</v>
+        <v>0.4743400696035335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5425815362580217</v>
+        <v>0.5426815212886857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1052</v>
@@ -1943,19 +1943,19 @@
         <v>1126293</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1099656</v>
+        <v>1101291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1150535</v>
+        <v>1151863</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8557341726155345</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8354960186302109</v>
+        <v>0.8367376788774445</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8741528316770901</v>
+        <v>0.8751611002389651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1492</v>
@@ -1964,19 +1964,19 @@
         <v>1600424</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1553891</v>
+        <v>1559986</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1639715</v>
+        <v>1643491</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7124953853782856</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6917793921789532</v>
+        <v>0.694492676415924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7299872408420187</v>
+        <v>0.7316681378419384</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>1072590</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1030822</v>
+        <v>1028852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1118710</v>
+        <v>1116203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5729659252946724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5506542100286801</v>
+        <v>0.5496013623647789</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5976025083585973</v>
+        <v>0.5962635661289517</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>465</v>
@@ -2089,19 +2089,19 @@
         <v>503110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>467928</v>
+        <v>467935</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>541050</v>
+        <v>541375</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2921562494464322</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2717261507805497</v>
+        <v>0.2717299968221711</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3141881737044723</v>
+        <v>0.3143766207443201</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1479</v>
@@ -2110,19 +2110,19 @@
         <v>1575700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1517236</v>
+        <v>1516614</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1634893</v>
+        <v>1636408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.438418569564919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4221518226726806</v>
+        <v>0.4219786364621648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.454888290124624</v>
+        <v>0.4553097787278512</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>799406</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>753286</v>
+        <v>755793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>841174</v>
+        <v>843144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4270340747053276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4023974916414028</v>
+        <v>0.4037364338710482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4493457899713201</v>
+        <v>0.4503986376352209</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1138</v>
@@ -2160,19 +2160,19 @@
         <v>1218948</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1181008</v>
+        <v>1180683</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1254130</v>
+        <v>1254123</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7078437505535677</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6858118262955277</v>
+        <v>0.6856233792556797</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7282738492194504</v>
+        <v>0.7282700031778286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1895</v>
@@ -2181,19 +2181,19 @@
         <v>2018354</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1959161</v>
+        <v>1957646</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2076818</v>
+        <v>2077440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.561581430435081</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.545111709875376</v>
+        <v>0.5446902212721489</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5778481773273196</v>
+        <v>0.5780213635378353</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>303654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>282643</v>
+        <v>282684</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329013</v>
+        <v>330098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6522764905271791</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6071430435587045</v>
+        <v>0.6072294204942509</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7067494661045816</v>
+        <v>0.7090801987501304</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>182</v>
@@ -2306,19 +2306,19 @@
         <v>201915</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180706</v>
+        <v>178570</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>223798</v>
+        <v>225375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4549359553218528</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4071492090962913</v>
+        <v>0.402335965112379</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5042411675793542</v>
+        <v>0.5077931866835231</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>465</v>
@@ -2327,19 +2327,19 @@
         <v>505570</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>471568</v>
+        <v>471754</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>536192</v>
+        <v>535095</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5559605693545219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.518569793622833</v>
+        <v>0.5187740706595553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5896348152580849</v>
+        <v>0.5884279456107179</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>161876</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>136517</v>
+        <v>135432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182887</v>
+        <v>182846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3477235094728209</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2932505338954177</v>
+        <v>0.2909198012498693</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3928569564412954</v>
+        <v>0.3927705795057491</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>217</v>
@@ -2377,19 +2377,19 @@
         <v>241917</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220034</v>
+        <v>218457</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>263126</v>
+        <v>265262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5450640446781472</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4957588324206458</v>
+        <v>0.4922068133164768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5928507909037087</v>
+        <v>0.597664034887621</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>357</v>
@@ -2398,19 +2398,19 @@
         <v>403793</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>373171</v>
+        <v>374268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>437795</v>
+        <v>437609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4440394306454782</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4103651847419151</v>
+        <v>0.4115720543892821</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4814302063771671</v>
+        <v>0.4812259293404446</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>1832165</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1773994</v>
+        <v>1772224</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1888079</v>
+        <v>1889072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5607105455082568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5429078943291004</v>
+        <v>0.542366373110482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5778223098041115</v>
+        <v>0.5781260285530305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>822</v>
@@ -2523,19 +2523,19 @@
         <v>894904</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>841693</v>
+        <v>844908</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>944807</v>
+        <v>946689</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2570039978294227</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2417226110972017</v>
+        <v>0.2426458233640769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2713355366015301</v>
+        <v>0.2718761039906769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2546</v>
@@ -2544,19 +2544,19 @@
         <v>2727070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2641543</v>
+        <v>2643133</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2814650</v>
+        <v>2809593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4040318247708954</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.391360454211383</v>
+        <v>0.3915960632479645</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4170074260269812</v>
+        <v>0.4162581721954955</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>1435413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1379499</v>
+        <v>1378506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1493584</v>
+        <v>1495354</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4392894544917431</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4221776901958884</v>
+        <v>0.4218739714469695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4570921056708996</v>
+        <v>0.4576336268895181</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2407</v>
@@ -2594,19 +2594,19 @@
         <v>2587158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2537255</v>
+        <v>2535373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2640369</v>
+        <v>2637154</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7429960021705774</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7286644633984698</v>
+        <v>0.728123896009323</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7582773889027983</v>
+        <v>0.7573541766359232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3744</v>
@@ -2615,19 +2615,19 @@
         <v>4022571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3934991</v>
+        <v>3940048</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4108098</v>
+        <v>4106508</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5959681752291046</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5829925739730186</v>
+        <v>0.5837418278045045</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6086395457886166</v>
+        <v>0.6084039367520354</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>331932</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>303779</v>
+        <v>306141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>356324</v>
+        <v>358404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4539663250819598</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4154618732701795</v>
+        <v>0.4186925418436642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4873249587326751</v>
+        <v>0.4901702080411815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -2979,19 +2979,19 @@
         <v>125353</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105300</v>
+        <v>104014</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>149308</v>
+        <v>148801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1274404070532615</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1070531004722872</v>
+        <v>0.105745735136735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1517937646214812</v>
+        <v>0.151278779656233</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>448</v>
@@ -3000,19 +3000,19 @@
         <v>457286</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>422070</v>
+        <v>425052</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>496199</v>
+        <v>492792</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.266669286886252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2461331186527159</v>
+        <v>0.2478721028315237</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.289362033173699</v>
+        <v>0.287374767551313</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>399251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>374859</v>
+        <v>372779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>427404</v>
+        <v>425042</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5460336749180402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5126750412673251</v>
+        <v>0.5098297919588185</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5845381267298208</v>
+        <v>0.5813074581563359</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>764</v>
@@ -3050,19 +3050,19 @@
         <v>858268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>834313</v>
+        <v>834820</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>878321</v>
+        <v>879607</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8725595929467385</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8482062353785188</v>
+        <v>0.848721220343767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8929468995277126</v>
+        <v>0.8942542648632648</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1172</v>
@@ -3071,19 +3071,19 @@
         <v>1257519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1218606</v>
+        <v>1222013</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1292735</v>
+        <v>1289753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.733330713113748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.710637966826301</v>
+        <v>0.7126252324486869</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7538668813472841</v>
+        <v>0.7521278971684764</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>1180395</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1131414</v>
+        <v>1135007</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1225372</v>
+        <v>1222624</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5863343426222462</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5620039059329177</v>
+        <v>0.5637885086844316</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6086752928814307</v>
+        <v>0.6073104114687911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>656</v>
@@ -3196,19 +3196,19 @@
         <v>681184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>644243</v>
+        <v>639529</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>728701</v>
+        <v>722336</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3471914547373605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3283631007368101</v>
+        <v>0.325960408082732</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.371410028213105</v>
+        <v>0.3681658940666619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1767</v>
@@ -3217,19 +3217,19 @@
         <v>1861580</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1795141</v>
+        <v>1804260</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1924424</v>
+        <v>1928344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4683028079515519</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.451589400649345</v>
+        <v>0.4538834084916607</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.48411205999762</v>
+        <v>0.4850983157581357</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>832783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>787806</v>
+        <v>790554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>881764</v>
+        <v>878171</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4136656573777538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.391324707118569</v>
+        <v>0.3926895885312089</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4379960940670822</v>
+        <v>0.4362114913155681</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1227</v>
@@ -3267,19 +3267,19 @@
         <v>1280800</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1233283</v>
+        <v>1239648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1317741</v>
+        <v>1322455</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6528085452626395</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6285899717868948</v>
+        <v>0.6318341059333383</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6716368992631899</v>
+        <v>0.6740395919172681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2008</v>
@@ -3288,19 +3288,19 @@
         <v>2113582</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2050738</v>
+        <v>2046818</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2180021</v>
+        <v>2170902</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5316971920484481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5158879400023799</v>
+        <v>0.5149016842418643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5484105993506551</v>
+        <v>0.5461165915083394</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>355978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>331534</v>
+        <v>333129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>376334</v>
+        <v>377473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.676182955259194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6297524552174534</v>
+        <v>0.6327813159875598</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7148493523505821</v>
+        <v>0.7170136718420093</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>251</v>
@@ -3413,19 +3413,19 @@
         <v>263408</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>239992</v>
+        <v>241777</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>289423</v>
+        <v>286038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4969807954081584</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4528004186325265</v>
+        <v>0.4561677716587034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5460629196539165</v>
+        <v>0.5396774752709963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>577</v>
@@ -3434,19 +3434,19 @@
         <v>619387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>586273</v>
+        <v>585832</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>651772</v>
+        <v>649635</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5862794897014447</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5549355122191849</v>
+        <v>0.5545181329703734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6169338810984453</v>
+        <v>0.6149106548601956</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>170474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>150118</v>
+        <v>148979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194918</v>
+        <v>193323</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.323817044740806</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2851506476494179</v>
+        <v>0.2829863281579906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3702475447825466</v>
+        <v>0.3672186840124388</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>259</v>
@@ -3484,19 +3484,19 @@
         <v>266609</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240594</v>
+        <v>243979</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>290025</v>
+        <v>288240</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5030192045918416</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4539370803460837</v>
+        <v>0.4603225247290039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5471995813674734</v>
+        <v>0.5438322283412966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>417</v>
@@ -3505,19 +3505,19 @@
         <v>437083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>404698</v>
+        <v>406835</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>470197</v>
+        <v>470638</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4137205102985553</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3830661189015547</v>
+        <v>0.3850893451398045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4450644877808151</v>
+        <v>0.4454818670296264</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>1868306</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1807283</v>
+        <v>1812179</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1927297</v>
+        <v>1927184</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5712052917922534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.552548417879801</v>
+        <v>0.5540452837216606</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5892408927895139</v>
+        <v>0.5892064454941633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1025</v>
@@ -3630,19 +3630,19 @@
         <v>1069945</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1016764</v>
+        <v>1015966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1129352</v>
+        <v>1127434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3078428679216579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2925414515409535</v>
+        <v>0.2923121257871883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3249353461326331</v>
+        <v>0.3243832453472405</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2792</v>
@@ -3651,19 +3651,19 @@
         <v>2938252</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2842518</v>
+        <v>2855327</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3017520</v>
+        <v>3018153</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4355264915645385</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4213362105602856</v>
+        <v>0.4232348760729849</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4472761555106685</v>
+        <v>0.4473699775018053</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>1402507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1343516</v>
+        <v>1343629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1463530</v>
+        <v>1458634</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4287947082077466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4107591072104861</v>
+        <v>0.4107935545058367</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.447451582120199</v>
+        <v>0.4459547162783394</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2250</v>
@@ -3701,19 +3701,19 @@
         <v>2405677</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2346270</v>
+        <v>2348188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2458858</v>
+        <v>2459656</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6921571320783422</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.675064653867367</v>
+        <v>0.6756167546527598</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7074585484590465</v>
+        <v>0.7076878742128118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3597</v>
@@ -3722,19 +3722,19 @@
         <v>3808184</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3728916</v>
+        <v>3728283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3903918</v>
+        <v>3891109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5644735084354615</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5527238444893314</v>
+        <v>0.5526300224981945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5786637894397144</v>
+        <v>0.5767651239270151</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>258511</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>232759</v>
+        <v>235821</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>280127</v>
+        <v>280110</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4486101873874941</v>
+        <v>0.4486101873874942</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.403921592552972</v>
+        <v>0.4092357322074616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4861222454514714</v>
+        <v>0.4860933887516225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -4086,19 +4086,19 @@
         <v>74933</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62555</v>
+        <v>61852</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90468</v>
+        <v>89304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09146155659037643</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07635239890861398</v>
+        <v>0.07549436292659034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1104228131536167</v>
+        <v>0.1090024300266894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>438</v>
@@ -4107,19 +4107,19 @@
         <v>333444</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>303652</v>
+        <v>304790</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>364938</v>
+        <v>365035</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2389361026013549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2175880882041122</v>
+        <v>0.2184037181093813</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2615035303571692</v>
+        <v>0.2615730931278141</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>317737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296121</v>
+        <v>296138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343489</v>
+        <v>340427</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5513898126125059</v>
+        <v>0.551389812612506</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5138777545485288</v>
+        <v>0.5139066112483778</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5960784074470281</v>
+        <v>0.5907642677925385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1300</v>
@@ -4157,19 +4157,19 @@
         <v>744356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>728821</v>
+        <v>729985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>756734</v>
+        <v>757437</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9085384434096236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8895771868463834</v>
+        <v>0.8909975699733107</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9236476010913861</v>
+        <v>0.9245056370734096</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1674</v>
@@ -4178,19 +4178,19 @@
         <v>1062093</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1030599</v>
+        <v>1030502</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1091885</v>
+        <v>1090747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7610638973986449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7384964696428309</v>
+        <v>0.738426906872186</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7824119117958879</v>
+        <v>0.7815962818906188</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>1047639</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>991951</v>
+        <v>994003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1099219</v>
+        <v>1099196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.47062693098007</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4456107230755794</v>
+        <v>0.4465322736952799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4937980686240214</v>
+        <v>0.4937877482014344</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>720</v>
@@ -4303,19 +4303,19 @@
         <v>560023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>523984</v>
+        <v>517301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>604013</v>
+        <v>595673</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2584225830612108</v>
+        <v>0.2584225830612109</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2417919852885189</v>
+        <v>0.2387083437493557</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2787213464171696</v>
+        <v>0.2748728916608119</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1638</v>
@@ -4324,19 +4324,19 @@
         <v>1607662</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1533584</v>
+        <v>1538304</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1672725</v>
+        <v>1683581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.365948863765823</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3490866724549999</v>
+        <v>0.3501609668720224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3807589180856388</v>
+        <v>0.3832301780683158</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1178410</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1126830</v>
+        <v>1126853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1234098</v>
+        <v>1232046</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5293730690199299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5062019313759786</v>
+        <v>0.5062122517985657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5543892769244207</v>
+        <v>0.5534677263047199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2195</v>
@@ -4374,19 +4374,19 @@
         <v>1607061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1563071</v>
+        <v>1571411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1643100</v>
+        <v>1649783</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7415774169387891</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7212786535828304</v>
+        <v>0.7251271083391881</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7582080147114811</v>
+        <v>0.7612916562506442</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3264</v>
@@ -4395,19 +4395,19 @@
         <v>2785471</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2720408</v>
+        <v>2709552</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2859549</v>
+        <v>2854829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6340511362341769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6192410819143611</v>
+        <v>0.6167698219316842</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6509133275450001</v>
+        <v>0.6498390331279777</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>368029</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>335789</v>
+        <v>339471</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>396249</v>
+        <v>397083</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5171945614006431</v>
+        <v>0.517194561400643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4718872737569563</v>
+        <v>0.4770620856721342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5568524866761313</v>
+        <v>0.5580243595043717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>359</v>
@@ -4520,19 +4520,19 @@
         <v>270040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>246673</v>
+        <v>248265</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294560</v>
+        <v>295530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3686876791364537</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3367845916869621</v>
+        <v>0.3389570006150641</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4021641347181501</v>
+        <v>0.4034886503502655</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>706</v>
@@ -4541,19 +4541,19 @@
         <v>638069</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>601036</v>
+        <v>599174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>674947</v>
+        <v>675640</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4418689918601827</v>
+        <v>0.4418689918601826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4162232907076224</v>
+        <v>0.4149338235679766</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4674072022133269</v>
+        <v>0.4678870126887174</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>343558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>315338</v>
+        <v>314504</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>375798</v>
+        <v>372116</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4828054385993569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4431475133238687</v>
+        <v>0.4419756404956283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5281127262430436</v>
+        <v>0.5229379143278658</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -4591,19 +4591,19 @@
         <v>462397</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>437877</v>
+        <v>436907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>485764</v>
+        <v>484172</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6313123208635461</v>
+        <v>0.6313123208635462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.59783586528185</v>
+        <v>0.5965113496497344</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6632154083130379</v>
+        <v>0.6610429993849357</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>976</v>
@@ -4612,19 +4612,19 @@
         <v>805955</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>769077</v>
+        <v>768384</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>842988</v>
+        <v>844850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5581310081398173</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5325927977866731</v>
+        <v>0.5321129873112825</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5837767092923775</v>
+        <v>0.5850661764320233</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>1674178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1611026</v>
+        <v>1610623</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1744965</v>
+        <v>1742428</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4764466508237549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4584744879499356</v>
+        <v>0.4583597780956303</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4965915645733095</v>
+        <v>0.495869646403405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1202</v>
@@ -4737,19 +4737,19 @@
         <v>904997</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>854620</v>
+        <v>855607</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>954297</v>
+        <v>952114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2433567191143967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2298100748062569</v>
+        <v>0.2300755542869581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.256613488879351</v>
+        <v>0.2560265879352848</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2782</v>
@@ -4758,19 +4758,19 @@
         <v>2579176</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2488281</v>
+        <v>2495102</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2662646</v>
+        <v>2658999</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3565995806768392</v>
+        <v>0.3565995806768393</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3440323759970036</v>
+        <v>0.3449754817567329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.368140249686795</v>
+        <v>0.3676359982295684</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>1839706</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1768919</v>
+        <v>1771456</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1902858</v>
+        <v>1903261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5235533491762452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5034084354266904</v>
+        <v>0.5041303535965949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5415255120500643</v>
+        <v>0.5416402219043697</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4137</v>
@@ -4808,19 +4808,19 @@
         <v>2813813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2764513</v>
+        <v>2766696</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2864190</v>
+        <v>2863203</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7566432808856033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7433865111206489</v>
+        <v>0.7439734120647152</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7701899251937432</v>
+        <v>0.7699244457130417</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5914</v>
@@ -4829,19 +4829,19 @@
         <v>4653518</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4570048</v>
+        <v>4573695</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4744413</v>
+        <v>4737592</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6434004193231606</v>
+        <v>0.6434004193231608</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.631859750313205</v>
+        <v>0.6323640017704318</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6559676240029964</v>
+        <v>0.6550245182432672</v>
       </c>
     </row>
     <row r="15">
